--- a/docs/timeleft.xlsx
+++ b/docs/timeleft.xlsx
@@ -104,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +424,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,15 +444,15 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>45</v>
+      <c r="C3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>30</v>
       </c>
     </row>
@@ -459,7 +460,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>30</v>
       </c>
     </row>
@@ -467,15 +468,15 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>30</v>
+      <c r="C6" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>90</v>
       </c>
     </row>
@@ -483,7 +484,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>120</v>
       </c>
     </row>
@@ -491,7 +492,7 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>120</v>
       </c>
     </row>
@@ -499,7 +500,7 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>45</v>
       </c>
     </row>
@@ -507,7 +508,7 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>120</v>
       </c>
     </row>
@@ -515,7 +516,7 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>45</v>
       </c>
     </row>
@@ -523,24 +524,30 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>120</v>
       </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <f>SUM(C3:C15)</f>
-        <v>795</v>
+        <v>740</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16">
         <f>C16/60</f>
-        <v>13.25</v>
+        <v>12.333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timeleft.xlsx
+++ b/docs/timeleft.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rahul\Documents\A levels\cs_checkers_a\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\Y2\Checkers Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -200,23 +200,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -252,23 +235,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,7 +390,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -540,14 +506,14 @@
       </c>
       <c r="C16" s="1">
         <f>SUM(C3:C15)</f>
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16">
         <f>C16/60</f>
-        <v>12.333333333333334</v>
+        <v>11.833333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timeleft.xlsx
+++ b/docs/timeleft.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\Y2\Checkers Project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rahul\Documents\A levels\cs_checkers_a\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -200,6 +200,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -235,6 +252,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,7 +424,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +453,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -427,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -506,14 +540,14 @@
       </c>
       <c r="C16" s="1">
         <f>SUM(C3:C15)</f>
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16">
         <f>C16/60</f>
-        <v>11.833333333333334</v>
+        <v>10.833333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timeleft.xlsx
+++ b/docs/timeleft.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>task</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>in hrs --&gt;</t>
+  </si>
+  <si>
+    <t>win conditions</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +435,7 @@
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -440,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -448,7 +451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -456,98 +459,106 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1">
-        <f>SUM(C3:C15)</f>
-        <v>650</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" s="1">
+        <f>SUM(C3:C16)</f>
+        <v>690</v>
+      </c>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E16">
-        <f>C16/60</f>
-        <v>10.833333333333334</v>
+      <c r="E17">
+        <f>C17/60</f>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timeleft.xlsx
+++ b/docs/timeleft.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -480,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -551,14 +551,14 @@
       </c>
       <c r="C17" s="1">
         <f>SUM(C3:C16)</f>
-        <v>690</v>
+        <v>575</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17">
         <f>C17/60</f>
-        <v>11.5</v>
+        <v>9.5833333333333339</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timeleft.xlsx
+++ b/docs/timeleft.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -551,14 +551,14 @@
       </c>
       <c r="C17" s="1">
         <f>SUM(C3:C16)</f>
-        <v>575</v>
+        <v>450</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17">
         <f>C17/60</f>
-        <v>9.5833333333333339</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timeleft.xlsx
+++ b/docs/timeleft.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>task</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>win conditions</t>
+  </si>
+  <si>
+    <t>option</t>
   </si>
 </sst>
 </file>
@@ -107,9 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +433,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +441,7 @@
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -443,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -451,7 +457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -459,15 +465,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -475,15 +481,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -491,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -499,50 +505,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -551,14 +566,14 @@
       </c>
       <c r="C17" s="1">
         <f>SUM(C3:C16)</f>
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17">
         <f>C17/60</f>
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timeleft.xlsx
+++ b/docs/timeleft.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
@@ -566,14 +566,14 @@
       </c>
       <c r="C17" s="1">
         <f>SUM(C3:C16)</f>
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17">
         <f>C17/60</f>
-        <v>3.25</v>
+        <v>3.6666666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timeleft.xlsx
+++ b/docs/timeleft.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>task</t>
   </si>
@@ -75,13 +75,19 @@
   </si>
   <si>
     <t>option</t>
+  </si>
+  <si>
+    <t>evaluation</t>
+  </si>
+  <si>
+    <t>touch up comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +95,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,12 +129,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +455,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,19 +520,19 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
-        <v>45</v>
+      <c r="C9" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <v>75</v>
+      <c r="C10" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -522,11 +544,12 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
-        <v>100</v>
+      <c r="C12" s="5">
+        <f>35 + 45</f>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
@@ -539,7 +562,7 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>45</v>
       </c>
     </row>
@@ -550,15 +573,25 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -566,17 +599,18 @@
       </c>
       <c r="C17" s="1">
         <f>SUM(C3:C16)</f>
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17">
         <f>C17/60</f>
-        <v>3.6666666666666665</v>
+        <v>4.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/timeleft.xlsx
+++ b/docs/timeleft.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rahul\Documents\A levels\cs_checkers_a\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\Y2\Checkers Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>task</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>touch up comments</t>
+  </si>
+  <si>
+    <t>test code</t>
   </si>
 </sst>
 </file>
@@ -231,23 +234,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -283,23 +269,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,8 +517,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="5">
-        <f>35 + 45</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
@@ -587,26 +555,34 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1">
-        <f>SUM(C3:C16)</f>
-        <v>255</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" s="1">
+        <f>SUM(C3:C17)</f>
+        <v>276</v>
+      </c>
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E17">
-        <f>C17/60</f>
-        <v>4.25</v>
+      <c r="E18">
+        <f>C18/60</f>
+        <v>4.5999999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timeleft.xlsx
+++ b/docs/timeleft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>task</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>win conditions</t>
-  </si>
-  <si>
-    <t>option</t>
   </si>
   <si>
     <t>evaluation</t>
@@ -106,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -141,6 +144,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +431,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,11 +496,11 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
-        <v>15</v>
+      <c r="C9" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -519,9 +526,7 @@
       <c r="C12" s="5">
         <v>60</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -530,9 +535,7 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="3">
-        <v>45</v>
-      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -541,32 +544,30 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="3">
-        <v>120</v>
-      </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5">
-        <v>45</v>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
+      <c r="B17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -575,14 +576,14 @@
       </c>
       <c r="C18" s="1">
         <f>SUM(C3:C17)</f>
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18">
         <f>C18/60</f>
-        <v>4.5999999999999996</v>
+        <v>3.5833333333333335</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timeleft.xlsx
+++ b/docs/timeleft.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\Y2\Checkers Project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rahul\Documents\A levels\cs_checkers_a\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>task</t>
   </si>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>test code</t>
+  </si>
+  <si>
+    <t>add objectives wqaffle</t>
+  </si>
+  <si>
+    <t>UI stuff</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>10 min check</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>4 hrs tommorrw</t>
+  </si>
+  <si>
+    <t>gl</t>
   </si>
 </sst>
 </file>
@@ -241,6 +265,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -276,6 +317,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +497,7 @@
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -447,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -455,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -463,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -471,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -479,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -487,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -495,23 +553,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -519,16 +589,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5">
-        <v>60</v>
+      <c r="C12" s="9">
+        <v>0</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -537,7 +607,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -546,15 +616,21 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
@@ -562,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
@@ -570,20 +646,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C3:C17)</f>
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18">
         <f>C18/60</f>
-        <v>3.5833333333333335</v>
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
